--- a/Config/ServerConfig/Excel/Server/SceneConfig.xlsx
+++ b/Config/ServerConfig/Excel/Server/SceneConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Framework\Framework\Config\Excel\Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Framework\Framework\Config\ServerConfig\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB6F701-E025-400C-B660-CBD51023BAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C287327B-E29E-4B83-9A35-DFECF1A184CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1816,7 +1816,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2008,17 +2008,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Addressable</t>
-  </si>
-  <si>
     <t>Map</t>
   </si>
   <si>
-    <t>Map Scene</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addressable Scene</t>
+    <t>中心服 Scene</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2920,7 +2913,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>736599</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -2975,7 +2968,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>736599</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -3030,7 +3023,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>736599</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -3085,7 +3078,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>736599</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -3398,10 +3391,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3685,84 +3678,20 @@
       </c>
       <c r="K9" s="7">
         <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G9,SceneTypeConfig!$B$3:$B$90000,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="15.75">
-      <c r="B10" s="6">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1004</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7">
-        <v>11004</v>
-      </c>
-      <c r="K10" s="7">
-        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G10,SceneTypeConfig!$B$3:$B$90000,0))</f>
-        <v>4</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="15.75">
-      <c r="B11" s="6">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1005</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7">
-        <v>11005</v>
-      </c>
-      <c r="K11" s="7">
-        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G11,SceneTypeConfig!$B$3:$B$90000,0))</f>
-        <v>4</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H11" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H9" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
       <formula1>"None,KCP,TCP,WebSocket,HTTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F11" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F9" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3777,7 +3706,7 @@
           <x14:formula1>
             <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G11</xm:sqref>
+          <xm:sqref>G7:G9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
